--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/ARIZONA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/ARIZONA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1422"/>
+  <dimension ref="A1:D1416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C34">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C39">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C46">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C51">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C73">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C80">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C89">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C90">
@@ -2102,7 +2102,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C132">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C143">
@@ -2297,7 +2297,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C147">
@@ -2583,7 +2583,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C169">
@@ -2596,7 +2596,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C170">
@@ -2609,7 +2609,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C171">
@@ -2700,7 +2700,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C178">
@@ -2726,7 +2726,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2770,7 +2770,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C183">
@@ -2965,7 +2965,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3087,7 +3087,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C207">
@@ -3248,7 +3248,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C219">
@@ -3305,7 +3305,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C223">
@@ -3500,7 +3500,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C238">
@@ -3591,7 +3591,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C245">
@@ -3643,7 +3643,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C249">
@@ -3656,7 +3656,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C250">
@@ -3669,7 +3669,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C251">
@@ -3799,12 +3799,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C261">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C264">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C265">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C270">
@@ -3999,7 +3999,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C276">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C280">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C286">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C292">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C300">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C310">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C312">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C314">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C322">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C331">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C337">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C338">
@@ -4844,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C341">
@@ -4857,7 +4857,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C342">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C351">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C352">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C361">
@@ -5161,7 +5161,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C365">
@@ -5252,7 +5252,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C372">
@@ -5317,7 +5317,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C377">
@@ -5343,7 +5343,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C379">
@@ -5369,7 +5369,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C381">
@@ -5382,7 +5382,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C382">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C383">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C384">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C388">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C394">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C397">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C401">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C402">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C404">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C405">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C408">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C411">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C416">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C420">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C421">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C427">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C428">
@@ -6011,7 +6011,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C430">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C432">
@@ -6089,7 +6089,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C436">
@@ -6232,7 +6232,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C447">
@@ -6271,7 +6271,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C450">
@@ -6297,7 +6297,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C452">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C455">
@@ -6349,7 +6349,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C456">
@@ -6375,7 +6375,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C458">
@@ -6427,7 +6427,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C462">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C469">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C474">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C475">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C479">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C483">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C486">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C493">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C494">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C496">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C498">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C499">
@@ -6952,7 +6952,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C502">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C506">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C510">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C511">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C513">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C519">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C520">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C522">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C526">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C531">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C534">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C536">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C540">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C546">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C553">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C558">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C560">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C562">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C568">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C573">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C578">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C579">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C582">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C585">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C586">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C588">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C589">
@@ -8101,7 +8101,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C590">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C594">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C599">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C600">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C602">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C603">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C613">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C614">
@@ -8478,7 +8478,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C619">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C620">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C623">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C625">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C626">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -8847,7 +8847,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C647">
@@ -8873,7 +8873,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C649">
@@ -9666,7 +9666,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C710">
@@ -10113,7 +10113,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C744">
@@ -10191,7 +10191,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C750">
@@ -10204,7 +10204,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C751">
@@ -10352,7 +10352,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C762">
@@ -10417,7 +10417,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C767">
@@ -10508,7 +10508,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C774">
@@ -10708,7 +10708,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C789">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C792">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C799">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C803">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C804">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C806">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C808">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C813">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C818">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C820">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C821">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C822">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C829">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C874">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C876">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C884">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C885">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C896">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C897">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C900">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C907">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C934">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C938">
@@ -12663,7 +12663,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C939">
@@ -12689,7 +12689,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C941">
@@ -12702,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C942">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C943">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C944">
@@ -12741,7 +12741,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C945">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C946">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C947">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C948">
@@ -12941,7 +12941,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C960">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C962">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C986">
@@ -13305,7 +13305,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C988">
@@ -13409,7 +13409,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C996">
@@ -13474,7 +13474,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1001">
@@ -13643,7 +13643,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1014">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1015">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1025">
@@ -13799,7 +13799,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1026">
@@ -13851,7 +13851,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1030">
@@ -13864,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1031">
@@ -13916,7 +13916,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1035">
@@ -14207,7 +14207,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1057">
@@ -14220,7 +14220,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1058">
@@ -14272,7 +14272,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1062">
@@ -14285,7 +14285,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1063">
@@ -14298,7 +14298,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1064">
@@ -14324,7 +14324,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1066">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1073">
@@ -14581,7 +14581,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1085">
@@ -14633,7 +14633,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1089">
@@ -14698,7 +14698,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1094">
@@ -14724,7 +14724,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1096">
@@ -14776,7 +14776,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1100">
@@ -14789,7 +14789,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1101">
@@ -15631,7 +15631,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1165">
@@ -15800,7 +15800,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1178">
@@ -16078,7 +16078,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1199">
@@ -16413,7 +16413,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1224">
@@ -16426,7 +16426,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1225">
@@ -16439,7 +16439,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1226">
@@ -16491,7 +16491,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1230">
@@ -16582,7 +16582,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
@@ -16652,7 +16652,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1242">
@@ -16743,7 +16743,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1249">
@@ -16769,7 +16769,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1251">
@@ -16808,7 +16808,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1254">
@@ -16834,7 +16834,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1256">
@@ -16990,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1268">
@@ -17172,7 +17172,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1282">
@@ -17185,7 +17185,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1283">
@@ -17224,7 +17224,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1286">
@@ -17250,7 +17250,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1288">
@@ -17263,7 +17263,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1289">
@@ -17380,7 +17380,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1298">
@@ -17406,7 +17406,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1300">
@@ -17549,7 +17549,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1311">
@@ -17588,7 +17588,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1314">
@@ -17705,7 +17705,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1323">
@@ -17744,7 +17744,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1326">
@@ -18339,7 +18339,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1371">
@@ -18391,7 +18391,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1375">
@@ -18534,7 +18534,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1386">
@@ -18651,7 +18651,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1395">
@@ -18664,7 +18664,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1396">
@@ -18794,7 +18794,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1406">
@@ -18807,7 +18807,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1407">
@@ -18872,7 +18872,7 @@
     <row r="1412">
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1412">
@@ -18924,7 +18924,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1416">
@@ -18932,41 +18932,6 @@
       </c>
       <c r="D1416">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
